--- a/Data/Transitions/19391950Translation.xlsx
+++ b/Data/Transitions/19391950Translation.xlsx
@@ -163,7 +163,7 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9949758577971871, 178.0: 0.008743055389971149, 492.0: 0.0034375, 97.0: 1.3291445142580957e-05, 696.0: 3.4640577762848506e-06}</t>
+    <t>{85.0: 0.994937445570922, 178.0: 0.008789371494318998, 492.0: 0.0034375, 97.0: 1.3250883392226149e-05, 696.0: 3.365698433420365e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -205,7 +205,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -271,7 +271,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851}</t>
@@ -319,13 +319,13 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886, 681.0: 0.005141867940848181}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808, 850.0: 0.0011018966358130604}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191, 850.0: 0.001560332981491432}</t>
+    <t>{178.0: 0.976087630142054, 681.0: 0.005141867940848181}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977, 850.0: 0.0011036579166127315}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023, 850.0: 0.0015638979353379187}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -361,7 +361,7 @@
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -370,7 +370,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.001962595243592704}</t>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.001962595243592704}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -406,7 +406,7 @@
     <t>{226.0: 0.7393333955746428}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -445,6 +445,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -508,7 +511,7 @@
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -637,9 +640,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -652,16 +652,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 141.0: 0.0015162157654260925}</t>
+    <t>{402.0: 0.9983019057254231, 141.0: 0.0015162157654260925}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9981033392723719, 907.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{404.0: 0.9980654238480479, 907.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -700,7 +700,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9984671980380135, 212.0: 0.0008088029145710924}</t>
+    <t>{420.0: 0.9984671980380135, 212.0: 0.0008055402969245773}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -775,7 +775,7 @@
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728}</t>
+    <t>{479.0: 0.9794553272814143}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -808,7 +808,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.003849685838569357, 696.0: 0.0010033170977494122, 85.0: 0.0014245921465699139, 178.0: 0.015123639130140285}</t>
+    <t>{492.0: 0.995625, 97.0: 0.003837937680693864, 696.0: 0.0009748286553524804, 85.0: 0.0014245371484958996, 178.0: 0.015122998363626934}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -868,7 +868,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -982,7 +982,7 @@
     <t>{593.0: 1.0, 171.0: 0.005747126436781609}</t>
   </si>
   <si>
-    <t>{595.0: 1.0, 402.0: 0.0010326311441553077}</t>
+    <t>{595.0: 1.0, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1081,7 +1081,7 @@
     <t>{627.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1156,7 +1156,7 @@
     <t>{695.0: 0.998165137614679}</t>
   </si>
   <si>
-    <t>{696.0: 0.9989932188444743, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{696.0: 0.9990218056462141, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1303,13 +1303,13 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 1.0, 420.0: 0.0015328019619865114, 212.0: 1.2416378792924353e-06}</t>
+    <t>{778.0: 1.0, 420.0: 0.0015328019619865114, 212.0: 1.2366292553340148e-06}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1327,7 +1327,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04165571887483691}</t>
+    <t>{788.0: -0.03638598371247355}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1369,7 +1369,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1387,7 +1387,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1459,10 +1459,10 @@
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1471,7 +1471,7 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5284090305469189}</t>
+    <t>{788.0: 0.5258825654402548}</t>
   </si>
   <si>
     <t>{909.0: 0.9909725650610057}</t>
@@ -1546,7 +1546,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1564,7 +1564,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1630,7 +1630,7 @@
     <t>{81.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180958, 694.0: 0.011355364681904206}</t>
@@ -1687,7 +1687,7 @@
     <t>{178.0: 0.9964536331396665, 681.0: 0.0035463668603335093}</t>
   </si>
   <si>
-    <t>{179.0: 0.5950678828464971, 180.0: 0.4047509394724499, 850.0: 0.0001811776810530214}</t>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.4037215427584727, 850.0: 0.00018071689469940593}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069352, 850.0: 0.0004474272930648769}</t>
@@ -1765,7 +1765,7 @@
     <t>{404.0: 0.7774172615184942, 907.0: 0.22258273848150553}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484792, 404.0: 0.0024965955515206537}</t>
+    <t>{405.0: 0.9975391498881433, 404.0: 0.0024608501118568234}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
@@ -1795,7 +1795,7 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9814308647433951, 97.0: 0.002007871515969779, 696.0: 0.0005019678789924448, 85.0: 0.0005274745625237669, 178.0: 0.015531821299119224}</t>
+    <t>{492.0: 0.9814308647433947, 97.0: 0.002007871515969779, 696.0: 0.0005019678789924448, 85.0: 0.0005274745625237669, 178.0: 0.015531821299119224}</t>
   </si>
   <si>
     <t>{502.0: 0.9978808570755828, 534.0: 0.0009418412997409935, 695.0: 0.0011773016246762421}</t>
@@ -1888,7 +1888,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.9974817134579119, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606779, 97.0: 4.11281720352593e-06}</t>
+    <t>{696.0: 0.9974817134579119, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606778, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3973,29 +3973,29 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>567</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4094,29 +4094,29 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>568</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>568</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4138,29 +4138,29 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>569</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>569</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4193,29 +4193,29 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>570</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>170</v>
+        <v>570</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4248,29 +4248,29 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>571</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4292,40 +4292,40 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>572</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>573</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4402,40 +4402,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>574</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>575</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4446,29 +4446,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>576</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4534,40 +4534,40 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>577</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>578</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
